--- a/Data/EC/NIT-9016024123.xlsx
+++ b/Data/EC/NIT-9016024123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{911FF835-D27B-428B-9E82-862453EAF171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEC2377-68C8-4B3E-B80C-41A3E7D86661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{88D56BA6-B25A-419C-8B08-7A0139931703}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DE5D0700-6FBC-4048-ADCD-7238A1317573}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,54 +65,171 @@
     <t>CC</t>
   </si>
   <si>
+    <t>98577914</t>
+  </si>
+  <si>
+    <t>ROBERNI BARRIOS BARRIOS MAZA</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1033370424</t>
+  </si>
+  <si>
+    <t>GELYS PAOLA CONTRERAS DIAZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>30764527</t>
+  </si>
+  <si>
+    <t>ONEIDA CASTILLO CONTRERAS</t>
+  </si>
+  <si>
+    <t>1047447121</t>
+  </si>
+  <si>
+    <t>ANDRES EDUARDO SEGURA CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>1047450250</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA DURAN LOPEZ</t>
+  </si>
+  <si>
+    <t>1047387512</t>
+  </si>
+  <si>
+    <t>ANTONIO ORLANDO ROMERO VELASQUEZ</t>
+  </si>
+  <si>
+    <t>45489200</t>
+  </si>
+  <si>
+    <t>MARTHA INES ROMERO SANCHEZ</t>
+  </si>
+  <si>
+    <t>1047406774</t>
+  </si>
+  <si>
+    <t>ELIZABETH JUDITH PEREZ LAMADRID</t>
+  </si>
+  <si>
+    <t>73194339</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL CASANOVA TORRES</t>
+  </si>
+  <si>
+    <t>1050969813</t>
+  </si>
+  <si>
+    <t>GREISSY GUETO RAMOS</t>
+  </si>
+  <si>
     <t>1047403402</t>
   </si>
   <si>
     <t>ELIANA PATRICIA ALEMAN MENDOZA</t>
   </si>
   <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>45489200</t>
-  </si>
-  <si>
-    <t>MARTHA INES ROMERO SANCHEZ</t>
-  </si>
-  <si>
-    <t>73194339</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL CASANOVA TORRES</t>
-  </si>
-  <si>
-    <t>98577914</t>
-  </si>
-  <si>
-    <t>ROBERNI BARRIOS BARRIOS MAZA</t>
-  </si>
-  <si>
-    <t>30764527</t>
-  </si>
-  <si>
-    <t>ONEIDA CASTILLO CONTRERAS</t>
-  </si>
-  <si>
-    <t>1047387512</t>
-  </si>
-  <si>
-    <t>ANTONIO ORLANDO ROMERO VELASQUEZ</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1047406774</t>
-  </si>
-  <si>
-    <t>ELIZABETH JUDITH PEREZ LAMADRID</t>
-  </si>
-  <si>
     <t>1002191526</t>
   </si>
   <si>
@@ -129,120 +246,6 @@
   </si>
   <si>
     <t>DUBANI ANDRES VALENCIA DORIA</t>
-  </si>
-  <si>
-    <t>1047447121</t>
-  </si>
-  <si>
-    <t>ANDRES EDUARDO SEGURA CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>1033370424</t>
-  </si>
-  <si>
-    <t>GELYS PAOLA CONTRERAS DIAZ</t>
-  </si>
-  <si>
-    <t>1047450250</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA DURAN LOPEZ</t>
-  </si>
-  <si>
-    <t>1050969813</t>
-  </si>
-  <si>
-    <t>GREISSY GUETO RAMOS</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -656,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6C9494-F224-6EFA-1AD5-A5F85C6E8DE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1871FAFC-68A5-A0BB-48FA-67728E126758}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,8 +1010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA7D9C6-E144-4705-9E68-A22B53C35F63}">
-  <dimension ref="B2:J249"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FF6124-3661-41EA-886F-7CDE337992EC}">
+  <dimension ref="B2:J256"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1032,7 +1035,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1077,7 +1080,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1109,12 +1112,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>9014665</v>
+        <v>9294665</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1125,17 +1128,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
         <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1162,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1185,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25333</v>
+        <v>21333</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1205,10 +1208,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>1333</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1222,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>25333</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1245,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>21333</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
         <v>1000000</v>
@@ -1268,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>21333</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1291,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1314,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1337,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1360,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1383,10 +1386,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>22</v>
@@ -1406,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1429,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1452,13 +1455,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1475,13 +1478,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1498,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1521,13 +1524,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1544,13 +1547,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1567,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1590,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1613,13 +1616,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1636,13 +1639,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1659,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1682,13 +1685,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1705,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1728,13 +1731,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1751,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1774,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1797,10 +1800,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>40</v>
@@ -1820,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1843,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1866,13 +1869,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1889,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1912,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1935,19 +1938,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>21333</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1958,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1981,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -2004,13 +2007,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -2027,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -2050,13 +2053,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2073,13 +2076,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2096,13 +2099,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2119,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2142,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2165,13 +2168,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2188,13 +2191,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2211,13 +2214,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2234,13 +2237,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2257,13 +2260,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2280,13 +2283,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2303,13 +2306,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F65" s="18">
         <v>40000</v>
@@ -2326,13 +2329,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2349,13 +2352,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2372,13 +2375,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D68" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
@@ -2395,13 +2398,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2418,13 +2421,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2441,13 +2444,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2464,13 +2467,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2487,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2510,13 +2513,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2533,13 +2536,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2556,13 +2559,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2579,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2602,13 +2605,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2625,13 +2628,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2648,13 +2651,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" s="18">
         <v>40000</v>
@@ -2671,10 +2674,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>45</v>
@@ -2694,13 +2697,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
@@ -2717,13 +2720,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F83" s="18">
         <v>40000</v>
@@ -2740,13 +2743,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="F84" s="18">
         <v>40000</v>
@@ -2763,13 +2766,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -2786,13 +2789,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F86" s="18">
         <v>40000</v>
@@ -2809,13 +2812,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F87" s="18">
         <v>40000</v>
@@ -2832,13 +2835,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F88" s="18">
         <v>40000</v>
@@ -2855,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F89" s="18">
         <v>40000</v>
@@ -2878,13 +2881,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F90" s="18">
         <v>40000</v>
@@ -2901,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F91" s="18">
         <v>40000</v>
@@ -2924,13 +2927,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F92" s="18">
         <v>40000</v>
@@ -2947,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -2970,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -2993,13 +2996,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="F95" s="18">
         <v>40000</v>
@@ -3016,13 +3019,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F96" s="18">
         <v>40000</v>
@@ -3039,13 +3042,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F97" s="18">
         <v>40000</v>
@@ -3062,13 +3065,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F98" s="18">
         <v>40000</v>
@@ -3085,13 +3088,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F99" s="18">
         <v>40000</v>
@@ -3108,13 +3111,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
@@ -3131,13 +3134,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F101" s="18">
         <v>40000</v>
@@ -3154,13 +3157,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
@@ -3177,13 +3180,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
@@ -3200,13 +3203,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F104" s="18">
         <v>40000</v>
@@ -3223,13 +3226,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F105" s="18">
         <v>40000</v>
@@ -3246,13 +3249,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3269,13 +3272,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F107" s="18">
         <v>40000</v>
@@ -3292,13 +3295,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F108" s="18">
         <v>40000</v>
@@ -3315,13 +3318,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F109" s="18">
         <v>40000</v>
@@ -3338,13 +3341,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F110" s="18">
         <v>40000</v>
@@ -3361,13 +3364,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
@@ -3384,13 +3387,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
@@ -3407,13 +3410,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3430,13 +3433,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F114" s="18">
         <v>40000</v>
@@ -3453,13 +3456,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
@@ -3476,13 +3479,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
@@ -3499,16 +3502,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F117" s="18">
-        <v>40000</v>
+        <v>1333</v>
       </c>
       <c r="G117" s="18">
         <v>1000000</v>
@@ -3522,13 +3525,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F118" s="18">
         <v>40000</v>
@@ -3545,13 +3548,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F119" s="18">
         <v>40000</v>
@@ -3568,13 +3571,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F120" s="18">
         <v>40000</v>
@@ -3591,13 +3594,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3614,13 +3617,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -3637,13 +3640,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F123" s="18">
         <v>40000</v>
@@ -3660,13 +3663,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F124" s="18">
         <v>40000</v>
@@ -3683,13 +3686,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F125" s="18">
         <v>40000</v>
@@ -3706,13 +3709,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
@@ -3729,13 +3732,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
@@ -3752,13 +3755,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F128" s="18">
         <v>40000</v>
@@ -3775,13 +3778,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F129" s="18">
         <v>40000</v>
@@ -3798,13 +3801,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F130" s="18">
         <v>40000</v>
@@ -3821,13 +3824,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F131" s="18">
         <v>40000</v>
@@ -3844,13 +3847,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F132" s="18">
         <v>40000</v>
@@ -3867,13 +3870,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F133" s="18">
         <v>40000</v>
@@ -3890,13 +3893,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D134" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F134" s="18">
         <v>40000</v>
@@ -3913,13 +3916,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F135" s="18">
         <v>40000</v>
@@ -3936,13 +3939,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D136" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F136" s="18">
         <v>40000</v>
@@ -3959,13 +3962,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F137" s="18">
         <v>40000</v>
@@ -3982,13 +3985,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F138" s="18">
         <v>40000</v>
@@ -4005,13 +4008,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F139" s="18">
         <v>40000</v>
@@ -4028,13 +4031,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F140" s="18">
         <v>40000</v>
@@ -4051,13 +4054,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F141" s="18">
         <v>40000</v>
@@ -4074,13 +4077,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F142" s="18">
         <v>40000</v>
@@ -4097,13 +4100,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
@@ -4120,13 +4123,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F144" s="18">
         <v>40000</v>
@@ -4143,13 +4146,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F145" s="18">
         <v>40000</v>
@@ -4166,13 +4169,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F146" s="18">
         <v>40000</v>
@@ -4189,13 +4192,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F147" s="18">
         <v>40000</v>
@@ -4212,13 +4215,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F148" s="18">
         <v>40000</v>
@@ -4235,13 +4238,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F149" s="18">
         <v>40000</v>
@@ -4258,19 +4261,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F150" s="18">
-        <v>40000</v>
+        <v>25333</v>
       </c>
       <c r="G150" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4281,13 +4284,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F151" s="18">
         <v>40000</v>
@@ -4304,13 +4307,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F152" s="18">
         <v>40000</v>
@@ -4327,13 +4330,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F153" s="18">
         <v>40000</v>
@@ -4350,16 +4353,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F154" s="18">
-        <v>40000</v>
+        <v>25333</v>
       </c>
       <c r="G154" s="18">
         <v>1000000</v>
@@ -4373,13 +4376,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F155" s="18">
         <v>40000</v>
@@ -4396,13 +4399,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F156" s="18">
         <v>40000</v>
@@ -4419,13 +4422,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F157" s="18">
         <v>40000</v>
@@ -4442,13 +4445,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F158" s="18">
         <v>40000</v>
@@ -4465,13 +4468,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F159" s="18">
         <v>40000</v>
@@ -4488,13 +4491,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F160" s="18">
         <v>40000</v>
@@ -4511,13 +4514,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F161" s="18">
         <v>40000</v>
@@ -4534,13 +4537,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F162" s="18">
         <v>40000</v>
@@ -4557,13 +4560,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F163" s="18">
         <v>40000</v>
@@ -4580,13 +4583,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F164" s="18">
         <v>40000</v>
@@ -4603,13 +4606,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F165" s="18">
         <v>40000</v>
@@ -4626,13 +4629,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F166" s="18">
         <v>40000</v>
@@ -4649,13 +4652,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F167" s="18">
         <v>40000</v>
@@ -4672,13 +4675,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F168" s="18">
         <v>40000</v>
@@ -4695,13 +4698,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F169" s="18">
         <v>40000</v>
@@ -4718,13 +4721,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F170" s="18">
         <v>40000</v>
@@ -4741,13 +4744,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F171" s="18">
         <v>40000</v>
@@ -4764,13 +4767,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F172" s="18">
         <v>40000</v>
@@ -4787,13 +4790,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F173" s="18">
         <v>40000</v>
@@ -4810,13 +4813,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F174" s="18">
         <v>40000</v>
@@ -4833,13 +4836,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F175" s="18">
         <v>40000</v>
@@ -4856,13 +4859,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F176" s="18">
         <v>40000</v>
@@ -4879,13 +4882,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F177" s="18">
         <v>40000</v>
@@ -4902,13 +4905,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F178" s="18">
         <v>40000</v>
@@ -4925,13 +4928,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F179" s="18">
         <v>40000</v>
@@ -4948,13 +4951,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F180" s="18">
         <v>40000</v>
@@ -4971,13 +4974,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F181" s="18">
         <v>40000</v>
@@ -4994,13 +4997,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F182" s="18">
         <v>40000</v>
@@ -5017,13 +5020,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F183" s="18">
         <v>40000</v>
@@ -5040,13 +5043,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F184" s="18">
         <v>40000</v>
@@ -5063,13 +5066,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F185" s="18">
         <v>40000</v>
@@ -5086,13 +5089,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F186" s="18">
         <v>40000</v>
@@ -5109,13 +5112,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F187" s="18">
         <v>40000</v>
@@ -5132,13 +5135,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F188" s="18">
         <v>40000</v>
@@ -5155,13 +5158,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F189" s="18">
         <v>40000</v>
@@ -5178,13 +5181,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F190" s="18">
         <v>40000</v>
@@ -5201,13 +5204,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F191" s="18">
         <v>40000</v>
@@ -5224,13 +5227,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F192" s="18">
         <v>40000</v>
@@ -5247,13 +5250,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F193" s="18">
         <v>40000</v>
@@ -5270,13 +5273,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F194" s="18">
         <v>40000</v>
@@ -5293,13 +5296,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F195" s="18">
         <v>40000</v>
@@ -5316,13 +5319,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F196" s="18">
         <v>40000</v>
@@ -5339,13 +5342,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F197" s="18">
         <v>40000</v>
@@ -5362,13 +5365,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F198" s="18">
         <v>40000</v>
@@ -5385,13 +5388,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F199" s="18">
         <v>40000</v>
@@ -5408,13 +5411,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E200" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F200" s="18">
         <v>40000</v>
@@ -5431,13 +5434,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F201" s="18">
         <v>40000</v>
@@ -5454,13 +5457,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F202" s="18">
         <v>40000</v>
@@ -5477,13 +5480,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F203" s="18">
         <v>40000</v>
@@ -5500,13 +5503,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E204" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F204" s="18">
         <v>40000</v>
@@ -5523,13 +5526,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F205" s="18">
         <v>40000</v>
@@ -5546,13 +5549,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E206" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F206" s="18">
         <v>40000</v>
@@ -5569,13 +5572,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F207" s="18">
         <v>40000</v>
@@ -5592,13 +5595,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F208" s="18">
         <v>40000</v>
@@ -5615,13 +5618,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F209" s="18">
         <v>40000</v>
@@ -5638,13 +5641,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F210" s="18">
         <v>40000</v>
@@ -5661,13 +5664,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F211" s="18">
         <v>40000</v>
@@ -5684,13 +5687,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F212" s="18">
         <v>40000</v>
@@ -5707,13 +5710,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F213" s="18">
         <v>40000</v>
@@ -5730,13 +5733,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F214" s="18">
         <v>40000</v>
@@ -5753,13 +5756,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F215" s="18">
         <v>40000</v>
@@ -5776,13 +5779,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F216" s="18">
         <v>40000</v>
@@ -5799,13 +5802,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F217" s="18">
         <v>40000</v>
@@ -5822,13 +5825,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F218" s="18">
         <v>40000</v>
@@ -5845,13 +5848,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F219" s="18">
         <v>40000</v>
@@ -5868,13 +5871,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F220" s="18">
         <v>40000</v>
@@ -5891,13 +5894,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F221" s="18">
         <v>40000</v>
@@ -5914,13 +5917,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F222" s="18">
         <v>40000</v>
@@ -5937,13 +5940,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F223" s="18">
         <v>40000</v>
@@ -5960,13 +5963,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F224" s="18">
         <v>40000</v>
@@ -5983,13 +5986,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F225" s="18">
         <v>40000</v>
@@ -6006,13 +6009,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F226" s="18">
         <v>40000</v>
@@ -6029,13 +6032,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F227" s="18">
         <v>40000</v>
@@ -6052,13 +6055,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F228" s="18">
         <v>40000</v>
@@ -6075,13 +6078,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F229" s="18">
         <v>40000</v>
@@ -6098,13 +6101,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F230" s="18">
         <v>40000</v>
@@ -6121,13 +6124,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F231" s="18">
         <v>40000</v>
@@ -6144,13 +6147,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F232" s="18">
         <v>40000</v>
@@ -6167,13 +6170,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F233" s="18">
         <v>40000</v>
@@ -6190,13 +6193,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F234" s="18">
         <v>40000</v>
@@ -6213,13 +6216,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F235" s="18">
         <v>40000</v>
@@ -6236,13 +6239,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F236" s="18">
         <v>40000</v>
@@ -6259,13 +6262,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F237" s="18">
         <v>40000</v>
@@ -6282,13 +6285,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F238" s="18">
         <v>40000</v>
@@ -6305,13 +6308,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F239" s="18">
         <v>40000</v>
@@ -6328,13 +6331,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D240" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F240" s="18">
         <v>40000</v>
@@ -6351,13 +6354,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F241" s="18">
         <v>40000</v>
@@ -6374,13 +6377,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F242" s="18">
         <v>40000</v>
@@ -6393,56 +6396,217 @@
       <c r="J242" s="20"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B243" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C243" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D243" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E243" s="22" t="s">
+      <c r="B243" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F243" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G243" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H243" s="25"/>
-      <c r="I243" s="25"/>
-      <c r="J243" s="26"/>
+      <c r="D243" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G243" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H243" s="19"/>
+      <c r="I243" s="19"/>
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B244" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F244" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G244" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F245" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G245" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F246" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G246" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F247" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G247" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B248" s="32" t="s">
+      <c r="B248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F248" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G248" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F249" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G249" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F250" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G250" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H250" s="25"/>
+      <c r="I250" s="25"/>
+      <c r="J250" s="26"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B255" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C255" s="32"/>
+      <c r="H255" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B256" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C248" s="32"/>
-      <c r="H248" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B249" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C249" s="32"/>
-      <c r="H249" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
+      <c r="C256" s="32"/>
+      <c r="H256" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="H249:J249"/>
-    <mergeCell ref="H248:J248"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="H256:J256"/>
+    <mergeCell ref="H255:J255"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
